--- a/fpm/DatenbankFortschritt.xlsx
+++ b/fpm/DatenbankFortschritt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmierung\Website\fpm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4A5D9-8AF0-4230-9FAB-FC56944AE3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5EF916-F0EF-47A1-BB06-E199A9444483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{86755699-8DC0-4AA6-896E-4214B081E670}"/>
+    <workbookView xWindow="-28920" yWindow="7950" windowWidth="29040" windowHeight="15840" xr2:uid="{86755699-8DC0-4AA6-896E-4214B081E670}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -423,21 +423,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -449,48 +435,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,7 +751,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -850,26 +794,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(B2:H2)</f>
-        <v>1</v>
+        <f t="shared" ref="I2:I33" si="0">SUM(B2:H2)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -880,26 +824,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f>SUM(B3:H3)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -910,26 +854,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(B4:H4)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -940,26 +884,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <f>SUM(B5:H5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -973,23 +917,23 @@
         <v>1</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <f>SUM(B6:H6)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -1000,26 +944,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <f>SUM(B7:H7)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -1030,26 +974,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <f>SUM(B8:H8)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -1078,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <f>SUM(B9:H9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1108,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>SUM(B10:H10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1138,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1228,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>SUM(B14:H14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1258,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>SUM(B15:H15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1288,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(B16:H16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1318,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>SUM(B17:H17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1348,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>SUM(B18:H18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1378,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>SUM(B19:H19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1408,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>SUM(B20:H20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>SUM(B21:H21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1468,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>SUM(B22:H22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1498,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>SUM(B23:H23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(B24:H24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1558,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>SUM(B25:H25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1588,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>SUM(B26:H26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1616,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>SUM(B27:H27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>SUM(B28:H28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1672,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>SUM(B29:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1700,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>SUM(B30:H30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1728,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>SUM(B31:H31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1756,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>SUM(B32:H32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1784,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>SUM(B33:H33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>SUM(B34:H34)</f>
+        <f t="shared" ref="I34:I65" si="1">SUM(B34:H34)</f>
         <v>0</v>
       </c>
     </row>
@@ -1840,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>SUM(B35:H35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1868,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>SUM(B36:H36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>SUM(B37:H37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1924,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>SUM(B38:H38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1952,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>SUM(B39:H39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>SUM(B40:H40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2008,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>SUM(B41:H41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>SUM(B42:H42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2064,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>SUM(B43:H43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2092,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>SUM(B44:H44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2120,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>SUM(B45:H45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2148,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>SUM(B46:H46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>SUM(B47:H47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2204,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>SUM(B48:H48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2232,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>SUM(B49:H49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2260,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>SUM(B50:H50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2288,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>SUM(B51:H51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>SUM(B52:H52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2344,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>SUM(B53:H53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2372,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>SUM(B54:H54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>SUM(B55:H55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2428,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>SUM(B56:H56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2456,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>SUM(B57:H57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2484,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>SUM(B58:H58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2512,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>SUM(B59:H59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>SUM(B60:H60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2568,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>SUM(B61:H61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2596,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>SUM(B62:H62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>SUM(B63:H63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2652,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <f>SUM(B64:H64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2680,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f>SUM(B65:H65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f>SUM(B66:H66)</f>
+        <f t="shared" ref="I66:I97" si="2">SUM(B66:H66)</f>
         <v>0</v>
       </c>
     </row>
@@ -2736,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <f>SUM(B67:H67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2764,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f>SUM(B68:H68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2792,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <f>SUM(B69:H69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2820,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <f>SUM(B70:H70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2848,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="2">
-        <f>SUM(B71:H71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2876,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <f>SUM(B72:H72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f>SUM(B73:H73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2932,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f>SUM(B74:H74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2960,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f>SUM(B75:H75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <f>SUM(B76:H76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3016,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2">
-        <f>SUM(B77:H77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2">
-        <f>SUM(B78:H78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3072,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f>SUM(B79:H79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3100,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f>SUM(B80:H80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f>SUM(B81:H81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3156,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2">
-        <f>SUM(B82:H82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3184,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="2">
-        <f>SUM(B83:H83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3212,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <f>SUM(B84:H84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3240,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <f>SUM(B85:H85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <f>SUM(B86:H86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <f>SUM(B87:H87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3324,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <f>SUM(B88:H88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3352,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="2">
-        <f>SUM(B89:H89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3380,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="2">
-        <f>SUM(B90:H90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3408,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="2">
-        <f>SUM(B91:H91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3436,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <f>SUM(B92:H92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3464,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="2">
-        <f>SUM(B93:H93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3492,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="2">
-        <f>SUM(B94:H94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <f>SUM(B95:H95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3548,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <f>SUM(B96:H96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3576,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f>SUM(B97:H97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f>SUM(B98:H98)</f>
+        <f t="shared" ref="I98:I129" si="3">SUM(B98:H98)</f>
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <f>SUM(B99:H99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3660,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="2">
-        <f>SUM(B100:H100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3675,10 +3619,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H100">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$I2&gt;=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$I2&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
